--- a/data/paradox/2019-Feb-CWL-R1-ChienHuuBD.xlsx
+++ b/data/paradox/2019-Feb-CWL-R1-ChienHuuBD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Documents/Development/PublicSource/clash-stats/data/paradox/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D07319-8617-9B43-A137-4331D3A41771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51980" yWindow="6200" windowWidth="25600" windowHeight="20740" tabRatio="500"/>
+    <workbookView xWindow="41780" yWindow="1300" windowWidth="24520" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +18,13 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -93,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -132,11 +143,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -469,6 +488,22 @@
           </cell>
           <cell r="B41" t="str">
             <v>GPUP2J00</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Sjcsan</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>2UV9CCCG</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Christ</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>LYUR99QL</v>
           </cell>
         </row>
       </sheetData>
@@ -798,16 +833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -847,17 +882,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43497</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -875,7 +910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -893,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -911,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -929,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -947,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -965,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -983,7 +1018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1001,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1037,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1055,7 +1090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1073,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1091,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1109,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1127,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1161,7 +1196,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1178,7 +1213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1195,7 +1230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1212,7 +1247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1229,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1246,7 +1281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1263,7 +1298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1297,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1314,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
@@ -1365,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15</v>
       </c>
@@ -1382,7 +1417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1399,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17</v>
       </c>
@@ -1416,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1433,7 +1468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>19</v>
       </c>
@@ -1450,7 +1485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20</v>
       </c>
@@ -1467,7 +1502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>21</v>
       </c>
@@ -1484,7 +1519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>22</v>
       </c>
@@ -1501,7 +1536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>23</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>24</v>
       </c>
@@ -1535,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>25</v>
       </c>
@@ -1552,7 +1587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>26</v>
       </c>
@@ -1569,7 +1604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>27</v>
       </c>
@@ -1586,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>28</v>
       </c>
@@ -1603,7 +1638,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>29</v>
       </c>
@@ -1620,7 +1655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>30</v>
       </c>
@@ -1639,6 +1674,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
